--- a/server/default.xlsx
+++ b/server/default.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{470A4678-AA54-4994-BC06-1B3674D11D5E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20E9A62-9AEB-4EF5-B02D-6751888CE1DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -92,16 +91,10 @@
     <t>Telephone:</t>
   </si>
   <si>
-    <t>905-272-2788</t>
-  </si>
-  <si>
     <t>(709) 279-2081</t>
   </si>
   <si>
     <t>Contact Name:</t>
-  </si>
-  <si>
-    <t>Steve Mothersell</t>
   </si>
   <si>
     <t>Fax:</t>
@@ -310,6 +303,12 @@
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Sai Poguluru</t>
+  </si>
+  <si>
+    <t>(647) 796-1492</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1416,7 @@
   <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K2"/>
+      <selection activeCell="B19" sqref="B19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1465,7 +1464,7 @@
     <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1711,7 +1710,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="C18" s="89"/>
       <c r="D18" s="89"/>
@@ -1721,7 +1720,7 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="91"/>
       <c r="J18" s="91"/>
@@ -1729,16 +1728,16 @@
     </row>
     <row r="19" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
       <c r="E19" s="11"/>
       <c r="F19" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="91"/>
@@ -1776,13 +1775,13 @@
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="94" t="s">
         <v>26</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="94" t="s">
-        <v>28</v>
       </c>
       <c r="D22" s="94"/>
       <c r="E22" s="94"/>
@@ -1791,10 +1790,10 @@
       <c r="H22" s="94"/>
       <c r="I22" s="94"/>
       <c r="J22" s="95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22" s="95" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1827,7 +1826,7 @@
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="98"/>
       <c r="E25" s="98"/>
@@ -1842,7 +1841,7 @@
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="99"/>
       <c r="E26" s="99"/>
@@ -1861,10 +1860,10 @@
     <row r="27" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="36"/>
       <c r="B27" s="31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D27" s="100"/>
       <c r="E27" s="100"/>
@@ -1883,10 +1882,10 @@
     <row r="28" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="38"/>
       <c r="B28" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
@@ -1918,7 +1917,7 @@
       <c r="A30" s="38"/>
       <c r="B30" s="31"/>
       <c r="C30" s="98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="98"/>
       <c r="E30" s="98"/>
@@ -1946,7 +1945,7 @@
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
@@ -1961,7 +1960,7 @@
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="102"/>
       <c r="E33" s="102"/>
@@ -1975,10 +1974,10 @@
     <row r="34" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="33"/>
       <c r="B34" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2013,7 +2012,7 @@
       <c r="A36" s="30"/>
       <c r="B36" s="31"/>
       <c r="C36" s="103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="103"/>
@@ -2040,10 +2039,10 @@
     <row r="38" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="33"/>
       <c r="B38" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="100" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="100"/>
       <c r="E38" s="100"/>
@@ -2062,10 +2061,10 @@
     <row r="39" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="38"/>
       <c r="B39" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D39" s="100"/>
       <c r="E39" s="100"/>
@@ -2094,10 +2093,10 @@
     <row r="41" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="56"/>
       <c r="B41" s="34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="100"/>
       <c r="E41" s="100"/>
@@ -2132,10 +2131,10 @@
     <row r="43" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="56"/>
       <c r="B43" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="100" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D43" s="100"/>
       <c r="E43" s="100"/>
@@ -2170,10 +2169,10 @@
     <row r="45" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="56"/>
       <c r="B45" s="34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="100"/>
       <c r="E45" s="100"/>
@@ -2195,10 +2194,10 @@
     <row r="46" spans="1:13" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="56"/>
       <c r="B46" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="39"/>
       <c r="E46" s="39"/>
@@ -2231,7 +2230,7 @@
       <c r="A48" s="56"/>
       <c r="B48" s="31"/>
       <c r="C48" s="57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="39"/>
       <c r="E48" s="39"/>
@@ -2251,10 +2250,10 @@
     <row r="49" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="36"/>
       <c r="B49" s="31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D49" s="39"/>
       <c r="E49" s="39"/>
@@ -2271,10 +2270,10 @@
     <row r="50" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="36"/>
       <c r="B50" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
@@ -2316,11 +2315,11 @@
     </row>
     <row r="53" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="105" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="105"/>
       <c r="C53" s="106" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="106"/>
       <c r="E53" s="106"/>
@@ -2328,7 +2327,7 @@
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
       <c r="I53" s="107" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J53" s="107"/>
       <c r="K53" s="65">
@@ -2346,7 +2345,7 @@
       <c r="G54" s="66"/>
       <c r="H54" s="66"/>
       <c r="I54" s="109" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J54" s="109"/>
       <c r="K54" s="67">
@@ -2364,7 +2363,7 @@
       <c r="G55" s="68"/>
       <c r="H55" s="68"/>
       <c r="I55" s="110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J55" s="110"/>
       <c r="K55" s="69">
@@ -2389,7 +2388,7 @@
       <c r="A57" s="75"/>
       <c r="B57" s="76"/>
       <c r="C57" s="101" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="101"/>
       <c r="E57" s="101"/>
@@ -2404,7 +2403,7 @@
       <c r="A58" s="75"/>
       <c r="B58" s="76"/>
       <c r="C58" s="111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D58" s="111"/>
       <c r="E58" s="111"/>
@@ -2418,10 +2417,10 @@
     <row r="59" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="33"/>
       <c r="B59" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="39"/>
@@ -2440,10 +2439,10 @@
     <row r="60" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="77"/>
       <c r="B60" s="31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="39"/>
@@ -2463,7 +2462,7 @@
       <c r="A61" s="75"/>
       <c r="B61" s="76"/>
       <c r="C61" s="111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="111"/>
       <c r="E61" s="111"/>
@@ -2481,7 +2480,7 @@
       <c r="A62" s="78"/>
       <c r="B62" s="76"/>
       <c r="C62" s="100" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D62" s="100"/>
       <c r="E62" s="100"/>
@@ -2501,7 +2500,7 @@
       <c r="A63" s="38"/>
       <c r="B63" s="31"/>
       <c r="C63" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="39"/>
@@ -2518,10 +2517,10 @@
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="56"/>
       <c r="B64" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D64" s="39"/>
       <c r="E64" s="39"/>
@@ -2552,7 +2551,7 @@
     </row>
     <row r="66" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B66" s="112"/>
       <c r="C66" s="113"/>
@@ -2562,11 +2561,11 @@
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
       <c r="I66" s="114" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J66" s="114"/>
       <c r="K66" s="65">
-        <f>SUM(K63:K64)</f>
+        <f>SUM(K59:K60)</f>
         <v>0</v>
       </c>
     </row>
@@ -2580,7 +2579,7 @@
       <c r="G67" s="66"/>
       <c r="H67" s="66"/>
       <c r="I67" s="116" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J67" s="116"/>
       <c r="K67" s="67">
@@ -2598,7 +2597,7 @@
       <c r="G68" s="80"/>
       <c r="H68" s="80"/>
       <c r="I68" s="118" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J68" s="118"/>
       <c r="K68" s="69">
@@ -2621,18 +2620,18 @@
     </row>
     <row r="70" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="11" t="s">
-        <v>81</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
@@ -2655,19 +2654,19 @@
     </row>
     <row r="72" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="119" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="119"/>
       <c r="C72" s="91"/>
       <c r="D72" s="91"/>
       <c r="E72" s="11"/>
       <c r="F72" s="120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G72" s="120"/>
       <c r="H72" s="11"/>
       <c r="I72" s="91" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="J72" s="91"/>
       <c r="K72" s="91"/>
@@ -2687,19 +2686,19 @@
     </row>
     <row r="74" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="121" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74" s="121"/>
       <c r="C74" s="91"/>
       <c r="D74" s="91"/>
       <c r="E74" s="11"/>
       <c r="F74" s="120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G74" s="120"/>
       <c r="H74" s="11"/>
       <c r="I74" s="91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J74" s="91"/>
       <c r="K74" s="91"/>
@@ -2719,7 +2718,7 @@
     </row>
     <row r="76" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="121" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="121"/>
       <c r="C76" s="121"/>
@@ -2747,19 +2746,19 @@
     </row>
     <row r="78" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="121" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" s="121"/>
       <c r="C78" s="91"/>
       <c r="D78" s="91"/>
       <c r="E78" s="11"/>
       <c r="F78" s="120" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G78" s="120"/>
       <c r="H78" s="11"/>
       <c r="I78" s="91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J78" s="91"/>
       <c r="K78" s="91"/>
@@ -2779,7 +2778,7 @@
     </row>
     <row r="80" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="122" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="122"/>
       <c r="C80" s="122"/>
@@ -2820,7 +2819,7 @@
     </row>
     <row r="83" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="124" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B83" s="124"/>
       <c r="C83" s="124"/>
